--- a/Collezione.xlsx
+++ b/Collezione.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238FE201-5711-4341-9C80-AB3057D8081F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D487882-AED4-4E24-8A44-7E8DD6DAFBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13110" yWindow="3940" windowWidth="36340" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="790" yWindow="370" windowWidth="36340" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Image" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
   <si>
     <t>Titolo</t>
   </si>
@@ -52,13 +52,97 @@
   </si>
   <si>
     <t>Speciale Image #0 Variant Lucca 1994</t>
+  </si>
+  <si>
+    <t>Youngblood #0</t>
+  </si>
+  <si>
+    <t>Originale</t>
+  </si>
+  <si>
+    <t>Youngblood #7</t>
+  </si>
+  <si>
+    <t>Youngblood #8</t>
+  </si>
+  <si>
+    <t>Youngblood #9</t>
+  </si>
+  <si>
+    <t>Youngblood #10</t>
+  </si>
+  <si>
+    <t>Image Comics</t>
+  </si>
+  <si>
+    <t>Supreme vol.1 #1 Silver Foil</t>
+  </si>
+  <si>
+    <t>Classic Youngblood</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Prophet #1 30 Years Image</t>
+  </si>
+  <si>
+    <t>Brigade #1 30 Years Image</t>
+  </si>
+  <si>
+    <t>Numero Unico</t>
+  </si>
+  <si>
+    <t>Shadowhawk The Last #1 20 Years Image</t>
+  </si>
+  <si>
+    <t>Completato</t>
+  </si>
+  <si>
+    <t>Prophet #10</t>
+  </si>
+  <si>
+    <t>Violator vs. Badrock #4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extreme Super Christmas Special Vol 1 </t>
+  </si>
+  <si>
+    <t>Brigade #6</t>
+  </si>
+  <si>
+    <t>Brigade #7</t>
+  </si>
+  <si>
+    <t>Brigade #8</t>
+  </si>
+  <si>
+    <t>Brigade #5</t>
+  </si>
+  <si>
+    <t>Prophet Babewatch Special #1</t>
+  </si>
+  <si>
+    <t>Phantom Force #1</t>
+  </si>
+  <si>
+    <t>Youngblood #1 Second Printing</t>
+  </si>
+  <si>
+    <t>Cult Comics #1 (Prophet Collection #1)</t>
+  </si>
+  <si>
+    <t>Marvel Italia</t>
+  </si>
+  <si>
+    <t>Cult Comics #2 (Prophet Collection #2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,8 +150,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -77,6 +167,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -93,9 +189,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -376,15 +476,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:D7"/>
+  <dimension ref="A4:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.453125" customWidth="1"/>
+    <col min="1" max="1" width="40.54296875" customWidth="1"/>
     <col min="3" max="3" width="25.1796875" customWidth="1"/>
     <col min="4" max="4" width="15.08984375" customWidth="1"/>
   </cols>
@@ -405,41 +505,348 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
         <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Collezione.xlsx
+++ b/Collezione.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D487882-AED4-4E24-8A44-7E8DD6DAFBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC1127A-30D9-43AD-86AF-E26715016C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="790" yWindow="370" windowWidth="36340" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="470" windowWidth="36340" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Image" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="68">
   <si>
     <t>Titolo</t>
   </si>
@@ -136,6 +136,99 @@
   </si>
   <si>
     <t>Cult Comics #2 (Prophet Collection #2)</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 18 Team 7</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 27 The New Stormwatch</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 25 Team 7 Grido di allarme</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 24 Hellshock</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 26 Team One WildC.A.T.s /Stormwatch</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 23 Backlash</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 22 Union</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 21 Backlash</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 20 Superpatriot</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 19 Wetworks</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 12 Gen 13 vol.1</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 13 Shadowhawk vol.1</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 15 Savage Dragon Pioggia di sangue</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 16 Wildstar</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 17 Shadowhawk: il segreto svelato</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 8 Vari</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 31 Astro City 1</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 30 Fuoco dal cielo Prologo</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 29 Strikeback!</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 28 Cybernary</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 35 Blackops</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 37 Wildcats / X-Men Anni 60</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 36 Wildcats / X-Men Anni 40</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 34 Deathblow &amp; Wolverine</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 33 Backlash &amp; Spider-man</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 32 Fuoco dal cielo Epilogo</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 43 Gen 13 3D</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 39 Wildcats / X-Men Il passato prossimo</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 40 Wildcats / X-Men Un cupo futuro</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 41 Nuovi orizzonti</t>
+  </si>
+  <si>
+    <t>Star Magazine Oro 41 Nuovi orizzonti Variant Comicconvention 98</t>
   </si>
 </sst>
 </file>
@@ -476,15 +569,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:D29"/>
+  <dimension ref="A4:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.54296875" customWidth="1"/>
+    <col min="1" max="1" width="53.6328125" customWidth="1"/>
     <col min="3" max="3" width="25.1796875" customWidth="1"/>
     <col min="4" max="4" width="15.08984375" customWidth="1"/>
   </cols>
@@ -739,113 +832,547 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>27</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40">
+        <v>30</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41">
+        <v>31</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45">
+        <v>35</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46">
+        <v>36</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47">
+        <v>37</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48">
+        <v>39</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49">
+        <v>40</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51">
+        <v>41</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52">
+        <v>43</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>14</v>
       </c>
-      <c r="B29">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Collezione.xlsx
+++ b/Collezione.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266B9286-2C52-4FFB-90F4-69D87A444183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AEA319-CBBE-4534-B74B-50D14F31985D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="410" windowWidth="36340" windowHeight="18950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="830" yWindow="1460" windowWidth="36340" windowHeight="18950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Image" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="179">
   <si>
     <t>Titolo</t>
   </si>
@@ -533,6 +533,39 @@
   </si>
   <si>
     <t>Wild #3: Divine Right #1</t>
+  </si>
+  <si>
+    <t>Wildstorm Star Comics</t>
+  </si>
+  <si>
+    <t>Completa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliffhanger </t>
+  </si>
+  <si>
+    <t>Incompleta</t>
+  </si>
+  <si>
+    <t>Ho da #1 a #10</t>
+  </si>
+  <si>
+    <t>Cyberforce  (Star Comics)</t>
+  </si>
+  <si>
+    <t>Fathom #2 Cult Comics - Top Cow</t>
+  </si>
+  <si>
+    <t>Witchblade Special Cult Comics #5</t>
+  </si>
+  <si>
+    <t>Garth Ennis</t>
+  </si>
+  <si>
+    <t>Awesome Comics Zero: Collana Bookstore # 2</t>
+  </si>
+  <si>
+    <t>Cult Comics</t>
   </si>
 </sst>
 </file>
@@ -554,7 +587,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -573,6 +606,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -586,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -594,6 +633,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -874,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:F104"/>
+  <dimension ref="A4:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -941,24 +981,27 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>35886</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
+        <v>178</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -969,10 +1012,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -983,10 +1026,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -997,99 +1040,96 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="4">
-        <v>44713</v>
-      </c>
       <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="4">
-        <v>34029</v>
-      </c>
       <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="4">
-        <v>34090</v>
+        <v>44713</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -1100,30 +1140,30 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="C18" s="4">
+        <v>35247</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>91</v>
+        <v>5</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="4">
-        <v>35004</v>
+        <v>34029</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
@@ -1133,231 +1173,223 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C20" s="4"/>
-      <c r="E20" s="2"/>
+      <c r="A20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>34090</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>26</v>
+      <c r="A21" t="s">
+        <v>90</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="C22" s="4">
+        <v>35004</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>152</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" s="4">
-        <v>39722</v>
-      </c>
-      <c r="D23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" t="s">
-        <v>153</v>
-      </c>
+      <c r="C23" s="4"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>157</v>
+      <c r="A24" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="4">
-        <v>34060</v>
-      </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>10</v>
+      <c r="E24" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4">
-        <v>34213</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>75</v>
+        <v>5</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26" s="4">
-        <v>34151</v>
+        <v>174</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>86</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C27" s="4">
-        <v>34213</v>
+        <v>39722</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C28" s="4">
-        <v>34304</v>
+        <v>34060</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
-        <v>86</v>
+        <v>15</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" s="4">
-        <v>44774</v>
+        <v>34213</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C30" s="4">
-        <v>44805</v>
+        <v>34151</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C31" s="4">
-        <v>44835</v>
+        <v>34213</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C32" s="4">
-        <v>44866</v>
+        <v>34304</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C33" s="4">
-        <v>44896</v>
+        <v>44774</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
@@ -1368,13 +1400,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C34" s="4">
-        <v>45017</v>
+        <v>44805</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
@@ -1385,13 +1417,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C35" s="4">
-        <v>45047</v>
+        <v>44835</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
@@ -1402,13 +1434,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C36" s="4">
-        <v>45078</v>
+        <v>44866</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
@@ -1419,13 +1451,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C37" s="4">
-        <v>45108</v>
+        <v>44896</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
@@ -1436,13 +1468,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C38" s="4">
-        <v>45139</v>
+        <v>45017</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
@@ -1453,13 +1485,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B39">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C39" s="4">
-        <v>45292</v>
+        <v>45047</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
@@ -1470,13 +1502,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C40" s="4">
-        <v>45323</v>
+        <v>45078</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
@@ -1487,13 +1519,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B41">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C41" s="4">
-        <v>45352</v>
+        <v>45108</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
@@ -1504,10 +1536,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C42" s="4">
+        <v>45139</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
@@ -1518,30 +1553,30 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C43" s="4">
-        <v>40483</v>
+        <v>45292</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43" t="s">
-        <v>155</v>
+        <v>15</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="C44" s="4">
+        <v>45323</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
@@ -1552,10 +1587,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C45" s="4">
+        <v>45352</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
@@ -1566,7 +1604,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1574,42 +1612,36 @@
       <c r="D46" t="s">
         <v>15</v>
       </c>
-      <c r="E46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46">
-        <v>5</v>
+      <c r="E46" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B47">
-        <v>271</v>
+        <v>2</v>
       </c>
       <c r="C47" s="4">
-        <v>45444</v>
+        <v>40483</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="F47" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="B48">
-        <v>16</v>
-      </c>
-      <c r="C48" s="4">
-        <v>34700</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
@@ -1617,13 +1649,10 @@
       <c r="E48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1631,212 +1660,227 @@
       <c r="D49" t="s">
         <v>15</v>
       </c>
-      <c r="E49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E49" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51">
+        <v>271</v>
+      </c>
+      <c r="C51" s="4">
+        <v>45444</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52">
+        <v>16</v>
+      </c>
+      <c r="C52" s="4">
+        <v>34700</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>7</v>
       </c>
-      <c r="B50">
+      <c r="B54">
         <v>4</v>
       </c>
-      <c r="D50" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="1" t="s">
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>8</v>
       </c>
-      <c r="B51">
+      <c r="B55">
         <v>1</v>
       </c>
-      <c r="D51" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="1" t="s">
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>52</v>
       </c>
-      <c r="B52">
+      <c r="B56">
         <v>8</v>
       </c>
-      <c r="D52" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>47</v>
       </c>
-      <c r="B53">
+      <c r="B57">
         <v>12</v>
       </c>
-      <c r="D53" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>48</v>
       </c>
-      <c r="B54">
+      <c r="B58">
         <v>13</v>
       </c>
-      <c r="D54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>49</v>
       </c>
-      <c r="B55">
-        <v>15</v>
-      </c>
-      <c r="D55" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="B59">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>50</v>
       </c>
-      <c r="B56">
+      <c r="B60">
         <v>16</v>
       </c>
-      <c r="D56" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>51</v>
       </c>
-      <c r="B57">
+      <c r="B61">
         <v>17</v>
       </c>
-      <c r="D57" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>37</v>
       </c>
-      <c r="B58">
+      <c r="B62">
         <v>18</v>
       </c>
-      <c r="D58" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>46</v>
       </c>
-      <c r="B59">
+      <c r="B63">
         <v>19</v>
       </c>
-      <c r="D59" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>45</v>
       </c>
-      <c r="B60">
+      <c r="B64">
         <v>20</v>
-      </c>
-      <c r="D60" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61">
-        <v>21</v>
-      </c>
-      <c r="D61" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>43</v>
-      </c>
-      <c r="B62">
-        <v>22</v>
-      </c>
-      <c r="D62" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>42</v>
-      </c>
-      <c r="B63">
-        <v>23</v>
-      </c>
-      <c r="D63" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>40</v>
-      </c>
-      <c r="B64">
-        <v>24</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
@@ -1847,10 +1891,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B65">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
@@ -1861,10 +1905,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B66">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
@@ -1875,10 +1919,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B67">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D67" t="s">
         <v>5</v>
@@ -1889,10 +1933,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B68">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D68" t="s">
         <v>5</v>
@@ -1903,10 +1947,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B69">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
@@ -1917,10 +1961,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B70">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D70" t="s">
         <v>5</v>
@@ -1931,10 +1975,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B71">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
@@ -1945,10 +1989,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B72">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D72" t="s">
         <v>5</v>
@@ -1959,10 +2003,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B73">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -1973,10 +2017,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B74">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D74" t="s">
         <v>5</v>
@@ -1987,10 +2031,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B75">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D75" t="s">
         <v>5</v>
@@ -2001,10 +2045,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B76">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D76" t="s">
         <v>5</v>
@@ -2015,10 +2059,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B77">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D77" t="s">
         <v>5</v>
@@ -2029,10 +2073,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B78">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
@@ -2043,10 +2087,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B79">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
@@ -2057,10 +2101,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B80">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D80" t="s">
         <v>5</v>
@@ -2071,10 +2115,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B81">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
@@ -2085,10 +2129,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B82">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
@@ -2099,118 +2143,94 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="B83">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D83" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B85">
-        <v>2</v>
-      </c>
-      <c r="C85" s="4">
-        <v>34060</v>
+        <v>41</v>
       </c>
       <c r="D85" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86" s="4">
-        <v>35765</v>
+        <v>43</v>
       </c>
       <c r="D86" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F86" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="B87">
-        <v>2</v>
-      </c>
-      <c r="C87" s="4">
-        <v>34121</v>
+        <v>23</v>
       </c>
       <c r="D87" t="s">
         <v>15</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F87" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="B88">
-        <v>2</v>
-      </c>
-      <c r="C88" s="4">
-        <v>34151</v>
+        <v>1</v>
       </c>
       <c r="D88" t="s">
         <v>15</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" t="s">
-        <v>70</v>
+      <c r="E88" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" s="4">
         <v>34060</v>
@@ -2222,86 +2242,98 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>144</v>
+        <v>150</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
       </c>
       <c r="C90" s="4">
-        <v>34425</v>
+        <v>35765</v>
       </c>
       <c r="D90" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
+      </c>
+      <c r="F90" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="B91">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C91" s="4">
+        <v>34121</v>
       </c>
       <c r="D91" t="s">
         <v>15</v>
       </c>
-      <c r="E91" t="s">
-        <v>10</v>
+      <c r="E91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="B92">
         <v>2</v>
       </c>
       <c r="C92" s="4">
-        <v>36678</v>
+        <v>34151</v>
       </c>
       <c r="D92" t="s">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>166</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93" s="4">
-        <v>33817</v>
+        <v>34060</v>
       </c>
       <c r="D93" t="s">
         <v>15</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="F93" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>159</v>
-      </c>
-      <c r="B94">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="C94" s="4">
-        <v>33970</v>
+        <v>34425</v>
       </c>
       <c r="D94" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>10</v>
@@ -2309,159 +2341,259 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="B95">
-        <v>3</v>
-      </c>
-      <c r="C95" s="4">
-        <v>33878</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
         <v>15</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E95" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C96" s="4">
-        <v>34029</v>
+        <v>36678</v>
       </c>
       <c r="D96" t="s">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
+      </c>
+      <c r="F96" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C97" s="4">
-        <v>41365</v>
+        <v>33817</v>
       </c>
       <c r="D97" t="s">
-        <v>96</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F97" t="s">
-        <v>164</v>
+        <v>15</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C98" s="4">
-        <v>44896</v>
+        <v>33970</v>
       </c>
       <c r="D98" t="s">
         <v>15</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C99" s="4">
+        <v>33878</v>
       </c>
       <c r="D99" t="s">
         <v>15</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C100" s="4">
+        <v>34029</v>
       </c>
       <c r="D100" t="s">
         <v>15</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="B101">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C101" s="4">
+        <v>41365</v>
       </c>
       <c r="D101" t="s">
-        <v>15</v>
-      </c>
-      <c r="E101" t="s">
-        <v>10</v>
+        <v>96</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F101" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>168</v>
+      </c>
+      <c r="B102">
         <v>12</v>
       </c>
-      <c r="B102">
-        <v>8</v>
+      <c r="C102" s="4">
+        <v>1997</v>
       </c>
       <c r="D102" t="s">
-        <v>15</v>
-      </c>
-      <c r="E102" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="B103">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C103" s="4">
+        <v>44896</v>
       </c>
       <c r="D103" t="s">
         <v>15</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>175</v>
+      </c>
+      <c r="C104" s="4">
+        <v>35735</v>
+      </c>
+      <c r="D104" t="s">
+        <v>35</v>
+      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="D105" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107">
+        <v>7</v>
+      </c>
+      <c r="D107" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109">
+        <v>9</v>
+      </c>
+      <c r="D109" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>14</v>
       </c>
-      <c r="B104">
-        <v>10</v>
-      </c>
-      <c r="C104" s="4">
+      <c r="B110">
+        <v>10</v>
+      </c>
+      <c r="C110" s="4">
         <v>34608</v>
       </c>
-      <c r="D104" t="s">
-        <v>15</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="D110" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" t="s">
         <v>10</v>
       </c>
     </row>
